--- a/me/2.Something-Groovy.xlsx
+++ b/me/2.Something-Groovy.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67251504-50F9-469A-B514-59CE2782711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F54534-72E3-4A0E-B1DA-E37266F9387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Starting a Gradle Build Script" sheetId="1" r:id="rId1"/>
     <sheet name="return" sheetId="2" r:id="rId2"/>
+    <sheet name="types" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>構成</t>
   </si>
@@ -149,6 +150,125 @@
   </si>
   <si>
     <t>②Also return if last line of a method is an assignment</t>
+  </si>
+  <si>
+    <t>int: types</t>
+  </si>
+  <si>
+    <t>Groovy is optional type, which means that we can actually use type or not use them. We have type of varialbe, parameters, return value can be a type or un type. If we declare variable that is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">un type we need to use the key word is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We can mind that def keyword is synonymous with objectin java. So if declare the variable of type objectin java, it is exactly the same as declaring a variable with the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> word def on groovy</t>
+    </r>
+  </si>
+  <si>
+    <t>we can assign any instance to that particular variable</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> doubleIt(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y = i</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -277,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -290,13 +410,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,6 +1441,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>437825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AC834C-1704-FDC4-7995-29A93556276B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="1238250"/>
+          <a:ext cx="2600000" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>98283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC8F6C6-EB56-C798-2047-BE109301F132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671793" y="9391651"/>
+          <a:ext cx="11083178" cy="5565632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3252,18 +3463,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B31BAFB-E4D2-4B19-8710-B54C956F98DC}">
   <dimension ref="A3:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3275,49 +3486,55 @@
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="E10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3327,12 +3544,12 @@
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -3344,170 +3561,80 @@
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
       <c r="I30" s="6"/>
       <c r="J30" t="s">
         <v>9</v>
@@ -3517,39 +3644,24 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
       <c r="I31" s="6"/>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
       <c r="I33" s="6"/>
       <c r="J33" t="s">
         <v>9</v>
@@ -3559,29 +3671,17 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="B35" s="12"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="8"/>
@@ -3617,8 +3717,8 @@
       <c r="T39" s="4"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="3"/>
@@ -3647,68 +3747,26 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="13" t="s">
+      <c r="C42" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="13" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
     </row>
@@ -3717,44 +3775,14 @@
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="13"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="13"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
@@ -3765,394 +3793,91 @@
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
     </row>
@@ -4180,29 +3905,11 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
       <c r="T65" s="6"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="3"/>
@@ -4231,92 +3938,36 @@
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="13" t="s">
+      <c r="C68" t="s">
         <v>36</v>
       </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="13" t="s">
+      <c r="C69" t="s">
         <v>37</v>
       </c>
       <c r="D69" s="6"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="13" t="s">
+      <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="6"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
     </row>
@@ -4325,44 +3976,14 @@
       <c r="B71" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="13"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="13"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
     </row>
@@ -4373,372 +3994,86 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
     </row>
@@ -4790,4 +4125,255 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4DCD2-143B-4319-8ECA-7D6869C0DF82}">
+  <dimension ref="A3:K48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.Something-Groovy.xlsx
+++ b/me/2.Something-Groovy.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F54534-72E3-4A0E-B1DA-E37266F9387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458895D5-1B3A-43F6-B367-008AD0620A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Starting a Gradle Build Script" sheetId="1" r:id="rId1"/>
     <sheet name="return" sheetId="2" r:id="rId2"/>
     <sheet name="types" sheetId="3" r:id="rId3"/>
+    <sheet name="Strings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>構成</t>
   </si>
@@ -269,6 +270,72 @@
       </rPr>
       <t xml:space="preserve"> y = i</t>
     </r>
+  </si>
+  <si>
+    <t>groovy do not have character literals as java does and string can be wrapped in either double or single quotes</t>
+  </si>
+  <si>
+    <t>    int y = i</t>
+  </si>
+  <si>
+    <t>def s1 = "a string"</t>
+  </si>
+  <si>
+    <t>println s1</t>
+  </si>
+  <si>
+    <t>def s2 = 'a string'</t>
+  </si>
+  <si>
+    <t>println s2</t>
+  </si>
+  <si>
+    <t>def s3 = """ A</t>
+  </si>
+  <si>
+    <t>    string</t>
+  </si>
+  <si>
+    <t>    on</t>
+  </si>
+  <si>
+    <t>    multiple</t>
+  </si>
+  <si>
+    <t>    lines</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t>println s3</t>
+  </si>
+  <si>
+    <t>// String interpolation</t>
+  </si>
+  <si>
+    <t>def x = 4</t>
+  </si>
+  <si>
+    <t>println "x is $x"</t>
+  </si>
+  <si>
+    <t>def myCourse = "gradle"</t>
+  </si>
+  <si>
+    <t>println "I'm training in: ${myCourse.toUpperCase()}"</t>
+  </si>
+  <si>
+    <t>string can be wrapped in double quotes</t>
+  </si>
+  <si>
+    <t>string can be wrapped in single quotes</t>
+  </si>
+  <si>
+    <t>using thre double quotes to dealing with strings over multiple lines</t>
+  </si>
+  <si>
+    <t>String interpolation</t>
   </si>
 </sst>
 </file>
@@ -397,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -413,8 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,6 +1600,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127658</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91D5125-052C-6985-1A96-01A099BF3AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="11734799"/>
+          <a:ext cx="9786008" cy="5057775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4131,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4DCD2-143B-4319-8ECA-7D6869C0DF82}">
   <dimension ref="A3:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4441,7 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="6"/>
@@ -4332,35 +4453,35 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="5" t="s">
         <v>48</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
+      <c r="B47" s="5"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="8"/>
@@ -4376,4 +4497,1182 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA18050-50FF-4888-AEB4-35BFAD6EE596}">
+  <dimension ref="A3:R89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="6"/>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="6"/>
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="6"/>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="6"/>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="6"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="6"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="6"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="6"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="6"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="6"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="6"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="6"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="6"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="6"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="6"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="6"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="6"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.Something-Groovy.xlsx
+++ b/me/2.Something-Groovy.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458895D5-1B3A-43F6-B367-008AD0620A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7E218-47C3-4952-A2AB-45F31438758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Starting a Gradle Build Script" sheetId="1" r:id="rId1"/>
     <sheet name="return" sheetId="2" r:id="rId2"/>
     <sheet name="types" sheetId="3" r:id="rId3"/>
     <sheet name="Strings" sheetId="4" r:id="rId4"/>
+    <sheet name="Properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
   <si>
     <t>構成</t>
   </si>
@@ -336,6 +337,96 @@
   </si>
   <si>
     <t>String interpolation</t>
+  </si>
+  <si>
+    <t>//Properties...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Person {                       </t>
+  </si>
+  <si>
+    <t>    String name                      </t>
+  </si>
+  <si>
+    <t>    Integer age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    Person(name, age) {          </t>
+  </si>
+  <si>
+    <t>        this.name = name</t>
+  </si>
+  <si>
+    <t>        this.age = age</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>def p = new Person("Fred", 35)</t>
+  </si>
+  <si>
+    <t>println p.age</t>
+  </si>
+  <si>
+    <t>p.age = 36</t>
+  </si>
+  <si>
+    <t>// with a Map</t>
+  </si>
+  <si>
+    <t>Map m = new HashMap()</t>
+  </si>
+  <si>
+    <t>m.put("foo", "Fred")</t>
+  </si>
+  <si>
+    <t>println m.get("foo")</t>
+  </si>
+  <si>
+    <t>m.foo = "bill"</t>
+  </si>
+  <si>
+    <t>m.bar = "Jane"</t>
+  </si>
+  <si>
+    <t>m.baz = "Dave"</t>
+  </si>
+  <si>
+    <t>m.foo</t>
+  </si>
+  <si>
+    <t>m.bar</t>
+  </si>
+  <si>
+    <t>m.baz</t>
+  </si>
+  <si>
+    <t>println m.foo</t>
+  </si>
+  <si>
+    <t>println m.bar</t>
+  </si>
+  <si>
+    <t>println m.baz</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>in java we use put method to setting value for collection</t>
+  </si>
+  <si>
+    <t>in java we use get method to getting value in collection</t>
+  </si>
+  <si>
+    <t>But groovy is very useful for properties when setting value</t>
+  </si>
+  <si>
+    <t>groovy is very useful for properties when getting value</t>
   </si>
 </sst>
 </file>
@@ -1655,6 +1746,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>115862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E65647D-46AB-9301-2063-87123FE83944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695324" y="18154650"/>
+          <a:ext cx="8724901" cy="4630712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4503,8 +4649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA18050-50FF-4888-AEB4-35BFAD6EE596}">
   <dimension ref="A3:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,260 +4754,122 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
       <c r="I41" s="6"/>
       <c r="J41" t="s">
         <v>9</v>
@@ -4874,24 +4882,12 @@
       <c r="B42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
       <c r="I43" s="6"/>
       <c r="J43" t="s">
         <v>9</v>
@@ -4904,24 +4900,12 @@
       <c r="B44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
       <c r="I45" s="6"/>
       <c r="J45" t="s">
         <v>9</v>
@@ -4934,118 +4918,58 @@
       <c r="B46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
       <c r="I55" s="6"/>
       <c r="J55" t="s">
         <v>9</v>
@@ -5056,24 +4980,12 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -5112,542 +5024,110 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
       <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
       <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
       <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
       <c r="R66" s="6"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
       <c r="R67" s="6"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
       <c r="R68" s="6"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
       <c r="R69" s="6"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
       <c r="R70" s="6"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
       <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
       <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
       <c r="R73" s="6"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
       <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
       <c r="R75" s="6"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
       <c r="R76" s="6"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
       <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
       <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
       <c r="R79" s="6"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
       <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
       <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
       <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
       <c r="R83" s="6"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
       <c r="R84" s="6"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
       <c r="R85" s="6"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
       <c r="R86" s="6"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
       <c r="R87" s="6"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
       <c r="R88" s="6"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -5675,4 +5155,1035 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443EAC04-AED0-4640-BD58-0FB9348EB089}">
+  <dimension ref="A3:K95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="6"/>
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="6"/>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="6"/>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="6"/>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.Something-Groovy.xlsx
+++ b/me/2.Something-Groovy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Gradle\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB7E218-47C3-4952-A2AB-45F31438758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA9F7C3-5A69-44D7-95C8-190515E20548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Starting a Gradle Build Script" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="types" sheetId="3" r:id="rId3"/>
     <sheet name="Strings" sheetId="4" r:id="rId4"/>
     <sheet name="Properties" sheetId="5" r:id="rId5"/>
+    <sheet name="Closures" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="183">
   <si>
     <t>構成</t>
   </si>
@@ -427,6 +428,308 @@
   </si>
   <si>
     <t>groovy is very useful for properties when getting value</t>
+  </si>
+  <si>
+    <t>//Closures</t>
+  </si>
+  <si>
+    <t>def echoIt = { parameter -&gt;</t>
+  </si>
+  <si>
+    <t>    println parameter</t>
+  </si>
+  <si>
+    <t>//called like a normal method</t>
+  </si>
+  <si>
+    <t>echoIt("Hello World!")</t>
+  </si>
+  <si>
+    <t>//with type Closure &lt;Interface&gt;</t>
+  </si>
+  <si>
+    <t>Closure echoIt2 = { parameter -&gt;</t>
+  </si>
+  <si>
+    <t>echoIt2("Hello World echoIt2!")</t>
+  </si>
+  <si>
+    <t>Closures is delared by using a pair of curly braces {}</t>
+  </si>
+  <si>
+    <t>we can actually assign it to a virable, a bit like a value</t>
+  </si>
+  <si>
+    <t>Run closures we use the parentheses () a bit like a method call</t>
+  </si>
+  <si>
+    <t>we can see that evaluating closures is very similar to method</t>
+  </si>
+  <si>
+    <t>When we call our clousure we can pass parameter same method</t>
+  </si>
+  <si>
+    <t>we can pass parameters in to closure using forward arrow syntax, parameter can also be typed int, string…</t>
+  </si>
+  <si>
+    <t>we can define with def, it is similar to the Java object type</t>
+  </si>
+  <si>
+    <t>We can chage def by more specific that we can use the Closure type</t>
+  </si>
+  <si>
+    <t>//pass closures as parameters</t>
+  </si>
+  <si>
+    <t>def oneArgMethod(closure) {</t>
+  </si>
+  <si>
+    <t>    closure() * 2</t>
+  </si>
+  <si>
+    <t>println oneArgMethod {10}</t>
+  </si>
+  <si>
+    <t>def twoArgMethod(factor, closure){</t>
+  </si>
+  <si>
+    <t>    closure() * factor</t>
+  </si>
+  <si>
+    <t>println twoArgMethod(3, {10})</t>
+  </si>
+  <si>
+    <t>twoArgMethod 3, {10}</t>
+  </si>
+  <si>
+    <t>def i = oneArgMethod {</t>
+  </si>
+  <si>
+    <t>    def y = 3</t>
+  </si>
+  <si>
+    <t>    y * 2</t>
+  </si>
+  <si>
+    <t>assert i == 12</t>
+  </si>
+  <si>
+    <t>//common uses for closure ... iterators!</t>
+  </si>
+  <si>
+    <t>for (int j in [1,2,3]){</t>
+  </si>
+  <si>
+    <t>    println j</t>
+  </si>
+  <si>
+    <t>[1,2,3].each {</t>
+  </si>
+  <si>
+    <t>    println it</t>
+  </si>
+  <si>
+    <t>pass cloures  {10} to oneArgMethod method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two arguments passed in parameters to our method. We pass in the closure, but we also </t>
+  </si>
+  <si>
+    <t>pass in the factor value. So instead of hard coding to into our method, we pass in factor</t>
+  </si>
+  <si>
+    <t>When there is more than one argument passed into a method and one of those arguments as a closure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the closure is always the last argument to be passed in and there is an </t>
+  </si>
+  <si>
+    <t>When we call method, the parentheses brackets are optional</t>
+  </si>
+  <si>
+    <t>We could have mutiple lines of code within a closure</t>
+  </si>
+  <si>
+    <t>Can pass closures to our method(oneArgMethod) as a parameter</t>
+  </si>
+  <si>
+    <t>test i = 12</t>
+  </si>
+  <si>
+    <t>This is a traditional way of doing things with a for in Java</t>
+  </si>
+  <si>
+    <t>In groove we have a little bit different by each method accepts as an arguments a closure. And</t>
+  </si>
+  <si>
+    <t>we pass that closure into the method each. Each element from the collection gets passed into the cloure</t>
+  </si>
+  <si>
+    <t>// Closure resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Person1 {                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    String name = "Fred"                     </t>
+  </si>
+  <si>
+    <t>    Closure nameSayer = {</t>
+  </si>
+  <si>
+    <t>        println name</t>
+  </si>
+  <si>
+    <t>def p1 = new Person1()</t>
+  </si>
+  <si>
+    <t>p1.nameSayer()</t>
+  </si>
+  <si>
+    <t>// Closed over a context</t>
+  </si>
+  <si>
+    <t>def theName = "John"</t>
+  </si>
+  <si>
+    <t>def sayName = {</t>
+  </si>
+  <si>
+    <t>    println theName</t>
+  </si>
+  <si>
+    <t>sayName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Person2 {                       </t>
+  </si>
+  <si>
+    <t>    String theName                      </t>
+  </si>
+  <si>
+    <t>    Integer theAge</t>
+  </si>
+  <si>
+    <t>    Person2(theName, theAge) {          </t>
+  </si>
+  <si>
+    <t>        this.theName = theName</t>
+  </si>
+  <si>
+    <t>        this.theAge = theAge</t>
+  </si>
+  <si>
+    <t>    def executeInside(Closure c){</t>
+  </si>
+  <si>
+    <t>        c.delegate = this</t>
+  </si>
+  <si>
+    <t>        c()</t>
+  </si>
+  <si>
+    <t>println p2.theName</t>
+  </si>
+  <si>
+    <t>p2.executeInside {println theName}</t>
+  </si>
+  <si>
+    <t>We have a class of person and the person has a name, which is an instancce variable</t>
+  </si>
+  <si>
+    <t>nameSayer instance contains a closure</t>
+  </si>
+  <si>
+    <t>We can evaluate closure like a normal method</t>
+  </si>
+  <si>
+    <t>theName = "Bill"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So the contents of the variable itself changes, so actual result of the closure when evalute it is different. </t>
+  </si>
+  <si>
+    <t>the values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Closures </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keep a reference to the context object in which they have been defined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and not reference to </t>
+    </r>
+  </si>
+  <si>
+    <t>When the context is actually updated and when the closure runs again, it will run against the new values</t>
+  </si>
+  <si>
+    <t>actually held in the context</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delicate object is just another groovy term for the context with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which the closure actually runs against</t>
+    </r>
+  </si>
+  <si>
+    <t>we reference delicate property, which is actually property on the closure</t>
+  </si>
+  <si>
+    <t>actually change the class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is a really powerful concept because </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>we can actually add arbitrary code to class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> without having to</t>
+    </r>
+  </si>
+  <si>
+    <t>def p2 = new Person2("Fred 2", 35)</t>
   </si>
 </sst>
 </file>
@@ -1801,6 +2104,1329 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AD9A55-2417-0E60-704C-0F9682376D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2209800" y="18440400"/>
+          <a:ext cx="6981825" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A3229D-8A95-82C7-DFC1-57F6A48B361D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="828675" y="18440400"/>
+          <a:ext cx="6477000" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9944BAA-AD81-9522-BE1C-94E6C4B210F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1076325" y="20173950"/>
+          <a:ext cx="8305800" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518272</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>149941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7EAA99-E7DD-2BB6-ED46-76304996D6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10271872" y="19084738"/>
+          <a:ext cx="6541434" cy="1448703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFB4675-6E29-F1D6-07DD-FA0B9C47B449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2514600" y="19973925"/>
+          <a:ext cx="7858125" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518272</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>187590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0263BC37-D193-92F3-68E6-8DC014EDA2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="19335750"/>
+          <a:ext cx="8309722" cy="473340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F5909C-5BFC-04EC-F34C-AF9788CF6CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="942975" y="21878925"/>
+          <a:ext cx="209550" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F167D88F-0FB0-70DE-D251-A656310A902E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1952625" y="21859875"/>
+          <a:ext cx="28575" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197548FC-B186-EB69-5A07-B2660DE2CED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2266950" y="23012400"/>
+          <a:ext cx="161925" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EFDD13-BFAA-7C67-897C-0B815B51D79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1885950" y="23002875"/>
+          <a:ext cx="190500" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>427518</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EF9A01-7FF2-9D2F-8932-ADC8B7C434D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820276" y="24279225"/>
+          <a:ext cx="7676042" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A8350B-7354-DD10-7E17-DEF70ABD9DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="22612350"/>
+          <a:ext cx="7743825" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35ACD7C4-5EA5-5944-D056-56818A02EC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="23774400"/>
+          <a:ext cx="7515225" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01C46BA-6BFC-CFC6-8871-15CB368B9213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1266825" y="25498425"/>
+          <a:ext cx="8686800" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074E3DB0-759A-24A5-A682-91B186FADFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1304925" y="25946100"/>
+          <a:ext cx="8686800" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FB53B3-6765-9BBF-1648-003C2F2D5364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1933575" y="29803725"/>
+          <a:ext cx="4124325" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9E0D73-C4A3-1896-1CA4-2AE401F14F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1619250" y="30622875"/>
+          <a:ext cx="4524375" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C8ED29-2FF3-8C41-0012-FE2306AFB3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1724025" y="30222825"/>
+          <a:ext cx="6886575" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00A5706-CCD0-6740-094E-64565004357B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1762125" y="32918400"/>
+          <a:ext cx="628650" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C888CCA-6B80-6161-F81E-F8C05CB5CCFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2428875" y="32842200"/>
+          <a:ext cx="8067675" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39AADEF-1941-4391-1E37-39346DB18F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="31394400"/>
+          <a:ext cx="314325" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>482342</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF49741-7E85-98C1-370A-6296C7CCE063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029700" y="28136850"/>
+          <a:ext cx="8521442" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1235C2C6-5DC1-C956-6EB8-1D9641D5E652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="27898725"/>
+          <a:ext cx="7391400" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F295041B-1EE3-0112-0B42-879BFFFF56A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2333625" y="29698950"/>
+          <a:ext cx="7010400" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E0F927-D499-5F1B-32F3-91A04CBC97B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2676525" y="29889450"/>
+          <a:ext cx="6705600" cy="4676775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2066,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T360"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
@@ -3730,7 +5356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B31BAFB-E4D2-4B19-8710-B54C956F98DC}">
   <dimension ref="A3:T91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -4398,7 +6024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4DCD2-143B-4319-8ECA-7D6869C0DF82}">
   <dimension ref="A3:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -4649,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA18050-50FF-4888-AEB4-35BFAD6EE596}">
   <dimension ref="A3:R89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K14"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,8 +6787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443EAC04-AED0-4640-BD58-0FB9348EB089}">
   <dimension ref="A3:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,18 +6887,581 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80" s="6"/>
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I82" s="6"/>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4A2DD-3514-4065-A859-2DC993FB1414}">
+  <dimension ref="A4:K183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -5283,7 +7472,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -5294,7 +7483,9 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -5314,9 +7505,7 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -5326,7 +7515,9 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -5346,9 +7537,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -5359,7 +7548,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5371,7 +7560,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5382,7 +7571,9 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -5392,9 +7583,7 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -5404,7 +7593,9 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -5414,9 +7605,7 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -5427,7 +7616,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -5439,7 +7628,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -5451,7 +7640,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -5463,7 +7652,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -5474,7 +7663,9 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -5484,9 +7675,7 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -5496,7 +7685,9 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -5506,9 +7697,7 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -5519,7 +7708,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -5531,7 +7720,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -5543,7 +7732,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -5555,7 +7744,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -5567,7 +7756,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -5579,7 +7768,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -5591,7 +7780,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -5603,7 +7792,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -5615,7 +7804,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -5627,7 +7816,7 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -5638,7 +7827,9 @@
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -5648,9 +7839,7 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -5661,7 +7850,7 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -5673,7 +7862,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -5684,7 +7873,9 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -5694,9 +7885,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -5707,7 +7896,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -5718,7 +7907,9 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -5728,9 +7919,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -5740,7 +7929,9 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+      <c r="B58" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -5750,9 +7941,7 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -5762,7 +7951,9 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
+      <c r="B60" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -5772,9 +7963,7 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -5784,8 +7973,8 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
-        <v>74</v>
+      <c r="B62" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -5796,8 +7985,8 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
-        <v>75</v>
+      <c r="B63" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -5808,8 +7997,8 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
-        <v>76</v>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -5819,9 +8008,9 @@
       <c r="H64" s="15"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>77</v>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -5831,9 +8020,9 @@
       <c r="H65" s="15"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="12" t="s">
-        <v>78</v>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -5843,9 +8032,9 @@
       <c r="H66" s="15"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>79</v>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -5855,9 +8044,9 @@
       <c r="H67" s="15"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>17</v>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -5867,8 +8056,10 @@
       <c r="H68" s="15"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -5877,10 +8068,8 @@
       <c r="H69" s="15"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>80</v>
-      </c>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -5889,9 +8078,9 @@
       <c r="H70" s="15"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
-        <v>81</v>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -5901,9 +8090,9 @@
       <c r="H71" s="15"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="12" t="s">
-        <v>82</v>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -5913,9 +8102,9 @@
       <c r="H72" s="15"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>81</v>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -5925,8 +8114,10 @@
       <c r="H73" s="15"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -5935,10 +8126,8 @@
       <c r="H74" s="15"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="12" t="s">
-        <v>83</v>
-      </c>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -5947,8 +8136,10 @@
       <c r="H75" s="15"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -5957,10 +8148,8 @@
       <c r="H76" s="15"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
-        <v>84</v>
-      </c>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -5968,15 +8157,11 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="6"/>
-      <c r="J77" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -5985,10 +8170,8 @@
       <c r="H78" s="15"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="12" t="s">
-        <v>85</v>
-      </c>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -5996,16 +8179,10 @@
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="6"/>
-      <c r="J79" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="12" t="s">
-        <v>86</v>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -6014,15 +8191,11 @@
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="6"/>
-      <c r="J80" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="12"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -6031,10 +8204,8 @@
       <c r="H81" s="15"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="12" t="s">
-        <v>87</v>
-      </c>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -6042,16 +8213,10 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="6"/>
-      <c r="J82" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
-        <v>88</v>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -6061,9 +8226,9 @@
       <c r="H83" s="15"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="12" t="s">
-        <v>89</v>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -6073,8 +8238,10 @@
       <c r="H84" s="15"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="12"/>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
@@ -6083,10 +8250,8 @@
       <c r="H85" s="15"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
-        <v>90</v>
-      </c>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
@@ -6094,16 +8259,10 @@
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="6"/>
-      <c r="J86" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>91</v>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -6113,9 +8272,9 @@
       <c r="H87" s="15"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="12" t="s">
-        <v>92</v>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
@@ -6125,8 +8284,10 @@
       <c r="H88" s="15"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="12"/>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -6135,10 +8296,8 @@
       <c r="H89" s="15"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
-        <v>93</v>
-      </c>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -6147,9 +8306,9 @@
       <c r="H90" s="15"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="12" t="s">
-        <v>94</v>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -6159,26 +8318,1252 @@
       <c r="H91" s="15"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>27</v>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="6"/>
+      <c r="J97" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="6"/>
+      <c r="K98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="6"/>
+      <c r="K99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="12"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="6"/>
+      <c r="K100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="6"/>
+      <c r="J102" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="6"/>
+      <c r="K103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="6"/>
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="6"/>
+      <c r="K107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="12"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="12"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="6"/>
+      <c r="J115" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="6"/>
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="12"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="6"/>
+      <c r="J121" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="6"/>
+      <c r="K122" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="12"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="6"/>
+      <c r="J125" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="12"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="6"/>
+      <c r="K126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="6"/>
+      <c r="J127" t="s">
+        <v>9</v>
+      </c>
+      <c r="K127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="12"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="6"/>
+      <c r="J129" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="12"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="6"/>
+      <c r="J134" t="s">
+        <v>9</v>
+      </c>
+      <c r="K134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="12"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="6"/>
+      <c r="J137" t="s">
+        <v>9</v>
+      </c>
+      <c r="K137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="12"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="6"/>
+      <c r="J141" t="s">
+        <v>9</v>
+      </c>
+      <c r="K141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="6"/>
+      <c r="K142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="6"/>
+      <c r="J147" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="6"/>
+      <c r="J148" t="s">
+        <v>9</v>
+      </c>
+      <c r="K148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="B149" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="B150" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="6"/>
+      <c r="J154" t="s">
+        <v>9</v>
+      </c>
+      <c r="K154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="6"/>
+      <c r="J161" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="6"/>
+      <c r="K162" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="6"/>
+      <c r="K163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="6"/>
+      <c r="K164" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="B165" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="6"/>
+      <c r="K165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="B166" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="B167" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="B168" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+      <c r="B169" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="B170" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="B171" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+      <c r="B173" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="B174" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="6"/>
+      <c r="J174" t="s">
+        <v>9</v>
+      </c>
+      <c r="K174" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="B175" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="6"/>
+      <c r="K175" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+      <c r="B176" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="B177" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+      <c r="B179" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+      <c r="B180" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="6"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="B182" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="6"/>
+      <c r="J182" t="s">
+        <v>9</v>
+      </c>
+      <c r="K182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="9"/>
+      <c r="K183" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
